--- a/SAT Data.xlsx
+++ b/SAT Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carts\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carts\Desktop\School\F23\ECON 3740\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7F6E96A-C89F-4A4B-B126-47B670B74F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A627EC1A-B581-41F8-AD2F-E1F7588C5DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{453D4BB2-5D14-40A8-BD92-F1100420D640}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{453D4BB2-5D14-40A8-BD92-F1100420D640}"/>
   </bookViews>
   <sheets>
     <sheet name="Digest 2022 Table 226.30" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -769,47 +769,50 @@
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="distributed" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,7 +1134,7 @@
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:U1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2291,104 +2294,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="95">
+      <c r="B2" s="93">
         <v>2017</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="95">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="93">
         <v>2020</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="95">
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="93">
         <v>2021</v>
       </c>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="95">
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="93">
         <v>2022</v>
       </c>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
     </row>
     <row r="3" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="100" t="s">
+      <c r="C3" s="99"/>
+      <c r="D3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="100" t="s">
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="100" t="s">
+      <c r="H3" s="99"/>
+      <c r="I3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="100" t="s">
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="101"/>
-      <c r="N3" s="100" t="s">
+      <c r="M3" s="99"/>
+      <c r="N3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="100" t="s">
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="101"/>
-      <c r="S3" s="100" t="s">
+      <c r="R3" s="99"/>
+      <c r="S3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
     </row>
     <row r="4" spans="1:21" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -2519,7 +2522,7 @@
       <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="105">
         <v>1715</v>
       </c>
       <c r="C6" s="57">
@@ -5556,29 +5559,29 @@
       </c>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="104"/>
-      <c r="K54" s="104"/>
-      <c r="L54" s="104"/>
-      <c r="M54" s="104"/>
-      <c r="N54" s="104"/>
-      <c r="O54" s="104"/>
-      <c r="P54" s="104"/>
-      <c r="Q54" s="104"/>
-      <c r="R54" s="104"/>
-      <c r="S54" s="104"/>
-      <c r="T54" s="104"/>
-      <c r="U54" s="104"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="102"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="102"/>
+      <c r="N54" s="102"/>
+      <c r="O54" s="102"/>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="102"/>
+      <c r="S54" s="102"/>
+      <c r="T54" s="102"/>
+      <c r="U54" s="102"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="90" t="s">
@@ -5684,54 +5687,59 @@
       <c r="A59" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="92"/>
-      <c r="K59" s="92"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="92"/>
-      <c r="N59" s="92"/>
-      <c r="O59" s="92"/>
-      <c r="P59" s="92"/>
-      <c r="Q59" s="92"/>
-      <c r="R59" s="92"/>
-      <c r="S59" s="92"/>
-      <c r="T59" s="92"/>
-      <c r="U59" s="92"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="104"/>
+      <c r="M59" s="104"/>
+      <c r="N59" s="104"/>
+      <c r="O59" s="104"/>
+      <c r="P59" s="104"/>
+      <c r="Q59" s="104"/>
+      <c r="R59" s="104"/>
+      <c r="S59" s="104"/>
+      <c r="T59" s="104"/>
+      <c r="U59" s="104"/>
     </row>
     <row r="60" spans="1:21" s="36" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="91"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92"/>
-      <c r="L60" s="92"/>
-      <c r="M60" s="92"/>
-      <c r="N60" s="92"/>
-      <c r="O60" s="92"/>
-      <c r="P60" s="92"/>
-      <c r="Q60" s="92"/>
-      <c r="R60" s="92"/>
-      <c r="S60" s="92"/>
-      <c r="T60" s="92"/>
-      <c r="U60" s="92"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="104"/>
+      <c r="M60" s="104"/>
+      <c r="N60" s="104"/>
+      <c r="O60" s="104"/>
+      <c r="P60" s="104"/>
+      <c r="Q60" s="104"/>
+      <c r="R60" s="104"/>
+      <c r="S60" s="104"/>
+      <c r="T60" s="104"/>
+      <c r="U60" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A56:U56"/>
+    <mergeCell ref="A57:U57"/>
+    <mergeCell ref="A58:U58"/>
+    <mergeCell ref="A59:U59"/>
+    <mergeCell ref="A60:U60"/>
     <mergeCell ref="A55:U55"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="B2:F2"/>
@@ -5748,11 +5756,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="A54:U54"/>
-    <mergeCell ref="A56:U56"/>
-    <mergeCell ref="A57:U57"/>
-    <mergeCell ref="A58:U58"/>
-    <mergeCell ref="A59:U59"/>
-    <mergeCell ref="A60:U60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.65" top="0.8" bottom="0.7" header="0.5" footer="0.5"/>
   <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/SAT Data.xlsx
+++ b/SAT Data.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carts\Desktop\School\F23\ECON 3740\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A627EC1A-B581-41F8-AD2F-E1F7588C5DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{180F2799-5F36-4506-888B-A83AB14B422D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{453D4BB2-5D14-40A8-BD92-F1100420D640}"/>
   </bookViews>
   <sheets>
-    <sheet name="Digest 2022 Table 226.30" sheetId="1" r:id="rId1"/>
+    <sheet name="SAT Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_Int" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Digest 2022 Table 226.30'!$A$1:$U$60</definedName>
-    <definedName name="_xlnm.Print_Area">'Digest 2022 Table 226.30'!$A$1:$F$61</definedName>
-    <definedName name="Print_Area_MI" localSheetId="0">'Digest 2022 Table 226.30'!$A$1:$F$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'SAT Data'!$A$1:$U$60</definedName>
+    <definedName name="_xlnm.Print_Area">'SAT Data'!$A$1:$F$61</definedName>
+    <definedName name="Print_Area_MI" localSheetId="0">'SAT Data'!$A$1:$F$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -507,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -812,6 +812,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,8 +1136,8 @@
   </sheetPr>
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2567,7 +2570,7 @@
       <c r="P6" s="64">
         <v>528</v>
       </c>
-      <c r="Q6" s="62">
+      <c r="Q6" s="106">
         <v>1737.6780000000001</v>
       </c>
       <c r="R6" s="65">
